--- a/inputGERAL.xlsx
+++ b/inputGERAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louise Correia\proseek.com.br\Proseek Colab - Documents\Sucesso do Cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Neris\Documents\GitHub\Projeto-3---Raspagem-de-Vagas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{4B2177B8-9C5A-4B30-B2A2-1B5C24CA0C41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0D3C906F-5B80-4DD9-91AD-1F0FDC7EE39F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664BF669-6D6C-4BDD-A412-6DFCC68323F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SHEET1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SHEET1!$A$1:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SHEET1!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>Rio de Janeiro</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Assunto</t>
   </si>
   <si>
-    <t xml:space="preserve">BTG </t>
-  </si>
-  <si>
     <t>fundo de investimento</t>
   </si>
   <si>
-    <t xml:space="preserve">XP Investimentos </t>
-  </si>
-  <si>
     <t>Asset management</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>Análise de Risco</t>
+  </si>
+  <si>
+    <t>XP Investimentos</t>
+  </si>
+  <si>
+    <t>Asset Allocation</t>
   </si>
 </sst>
 </file>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,15 +463,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -479,47 +479,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>0</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,28 +538,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>0</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
@@ -591,31 +591,31 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1</v>
@@ -653,33 +653,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B6" xr:uid="{3AFF9F73-B3BA-41FA-89D3-E45E2FFBAC16}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+  <autoFilter ref="A1:B5" xr:uid="{3AFF9F73-B3BA-41FA-89D3-E45E2FFBAC16}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B5">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
